--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Host</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>API</t>
+    <t>Api_Func</t>
   </si>
   <si>
     <t>Path</t>
@@ -31,12 +31,21 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Data Type</t>
+  </si>
+  <si>
     <t>Required Params</t>
   </si>
   <si>
     <t>Selective Params</t>
   </si>
   <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actually Results</t>
+  </si>
+  <si>
     <t>http://117.50.57.155:48230</t>
   </si>
   <si>
@@ -49,7 +58,16 @@
     <t>post</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
     <t>loginname,password</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>操作成功</t>
   </si>
   <si>
     <t>Logout</t>
@@ -66,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +103,30 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,45 +145,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,76 +237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +257,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,12 +305,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,126 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +464,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -466,26 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -497,15 +504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +522,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,16 +562,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,115 +580,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,6 +697,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,21 +1050,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="4" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="4" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,42 +1086,72 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +101,103 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,9 +213,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,105 +228,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,31 +257,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,18 +341,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,18 +353,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,13 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,31 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,43 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,24 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -489,21 +471,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,6 +518,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +562,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,115 +580,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I3" sqref="B1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Host</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -107,14 +110,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,48 +153,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,45 +178,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -227,16 +185,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +445,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,17 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +537,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -518,30 +545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +565,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,115 +583,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,15 +1056,15 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="B1:I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="4" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="10" width="18.25" customWidth="1"/>
+    <col min="7" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1118,7 +1121,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -1141,8 +1144,8 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
+      <c r="F3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>

--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Host</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -116,9 +113,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,28 +172,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -170,10 +204,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,36 +220,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,22 +228,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,45 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,6 +518,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1053,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1145,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>

--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Host</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>操作成功</t>
+  </si>
+  <si>
+    <t>PlatformConfigDepartment</t>
+  </si>
+  <si>
+    <t>DepartmentList</t>
+  </si>
+  <si>
+    <t>/department/list</t>
+  </si>
+  <si>
+    <t>parentId</t>
   </si>
   <si>
     <t>Logout</t>
@@ -107,31 +119,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,68 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,23 +157,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +454,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,26 +524,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -542,6 +543,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -550,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,16 +574,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,115 +592,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,16 +1062,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="4" max="6" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="10" width="18.25" customWidth="1"/>
   </cols>
@@ -1125,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,30 +1148,60 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
     <hyperlink ref="A3" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/API_Data.xlsx
+++ b/Data/API_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Host</t>
   </si>
@@ -70,16 +70,16 @@
     <t>操作成功</t>
   </si>
   <si>
-    <t>PlatformConfigDepartment</t>
-  </si>
-  <si>
-    <t>DepartmentList</t>
-  </si>
-  <si>
-    <t>/department/list</t>
-  </si>
-  <si>
-    <t>parentId</t>
+    <t>FirmwareVersion</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>/firmwareVersion/list</t>
+  </si>
+  <si>
+    <t>pageIndex,pageSize</t>
   </si>
   <si>
     <t>Logout</t>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>/device/list</t>
+  </si>
+  <si>
+    <t>currentFirmware,groupName,mixColumn,pageIndex</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +171,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -141,21 +224,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -163,13 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -178,77 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +272,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,169 +422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +476,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -481,50 +514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +548,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,16 +583,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,127 +601,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1062,20 +1077,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E18" sqref="I5 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="8" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1101,7 +1117,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1112,7 +1128,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -1133,7 +1149,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
@@ -1141,7 +1157,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -1159,18 +1175,18 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -1188,13 +1204,42 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1203,6 +1248,7 @@
     <hyperlink ref="A2" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
     <hyperlink ref="A4" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
     <hyperlink ref="A3" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
+    <hyperlink ref="A5" r:id="rId1" display="http://117.50.57.155:48230" tooltip="http://117.50.57.155:48230"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
